--- a/assets/VL.xlsx
+++ b/assets/VL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebk\makro\p6_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebk\makro\p6_data\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63C3C59-EB03-4D5A-81DD-F91FC0A9DD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8362B2EA-8DA5-4E97-87C8-9ED8D63294CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="570" windowWidth="29040" windowHeight="16830" xr2:uid="{E7DE5B6D-17B1-4BBB-8342-C7DA09B36074}"/>
+    <workbookView xWindow="-120" yWindow="570" windowWidth="29040" windowHeight="15030" xr2:uid="{E7DE5B6D-17B1-4BBB-8342-C7DA09B36074}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -616,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2422EC17-15C8-4726-B31A-3667559F39F4}">
   <dimension ref="A1:AF7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,10 +789,10 @@
       <c r="O2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>

--- a/assets/VL.xlsx
+++ b/assets/VL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebk\makro\p6_data\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8362B2EA-8DA5-4E97-87C8-9ED8D63294CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D684917D-2187-4FC7-AC48-257F02061841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="570" windowWidth="29040" windowHeight="15030" xr2:uid="{E7DE5B6D-17B1-4BBB-8342-C7DA09B36074}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="56">
   <si>
     <t>24-2267</t>
   </si>
@@ -163,9 +163,6 @@
   </si>
   <si>
     <t>sø</t>
-  </si>
-  <si>
-    <t>FV8</t>
   </si>
   <si>
     <t>fv9</t>
@@ -616,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2422EC17-15C8-4726-B31A-3667559F39F4}">
   <dimension ref="A1:AF7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,34 +710,34 @@
         <v>36</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -757,10 +754,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>11</v>
@@ -777,9 +774,7 @@
       <c r="K2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="2">
-        <v>31400</v>
-      </c>
+      <c r="L2" s="2"/>
       <c r="M2" s="2">
         <v>31400</v>
       </c>
@@ -789,11 +784,15 @@
       <c r="O2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="2"/>
+      <c r="P2" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="Q2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="2"/>
+      <c r="R2" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
@@ -843,10 +842,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>11</v>
@@ -860,9 +859,7 @@
       <c r="J3" s="2">
         <v>2</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="K3" s="2"/>
       <c r="L3" s="2">
         <v>31400</v>
       </c>
@@ -875,10 +872,10 @@
       <c r="O3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
@@ -929,10 +926,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
@@ -947,7 +944,7 @@
         <v>3</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L4" s="2">
         <v>31400</v>
@@ -1019,10 +1016,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>11</v>
@@ -1037,7 +1034,7 @@
         <v>4</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L5" s="2">
         <v>31400</v>
@@ -1109,10 +1106,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>11</v>
@@ -1127,7 +1124,7 @@
         <v>5</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L6" s="2">
         <v>31400</v>
@@ -1199,10 +1196,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>11</v>
@@ -1217,7 +1214,7 @@
         <v>6</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L7" s="2">
         <v>31400</v>
@@ -1424,7 +1421,7 @@
         <v>70112212</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L2" s="2">
         <v>31400</v>

--- a/assets/VL.xlsx
+++ b/assets/VL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebk\makro\p6_data\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D684917D-2187-4FC7-AC48-257F02061841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36860610-8B0F-4985-AE0E-2AF42975F9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="570" windowWidth="29040" windowHeight="15030" xr2:uid="{E7DE5B6D-17B1-4BBB-8342-C7DA09B36074}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{E7DE5B6D-17B1-4BBB-8342-C7DA09B36074}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="61">
   <si>
     <t>24-2267</t>
   </si>
@@ -183,9 +183,6 @@
     <t>16:53</t>
   </si>
   <si>
-    <t>18:03</t>
-  </si>
-  <si>
     <t>16:54</t>
   </si>
   <si>
@@ -205,6 +202,24 @@
   </si>
   <si>
     <t>UndtagneTransporttyper</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>dsd</t>
+  </si>
+  <si>
+    <t>01:01*</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
+    <t>18:03*</t>
   </si>
 </sst>
 </file>
@@ -611,27 +626,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2422EC17-15C8-4726-B31A-3667559F39F4}">
-  <dimension ref="A1:AF7"/>
+  <dimension ref="A1:AH7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="22" width="14.28515625" customWidth="1"/>
-    <col min="23" max="23" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.7109375" customWidth="1"/>
+    <col min="3" max="8" width="16.85546875" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="24" width="14.28515625" customWidth="1"/>
     <col min="25" max="25" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="22.7109375" customWidth="1"/>
     <col min="27" max="27" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -640,9 +653,11 @@
     <col min="30" max="30" width="22.7109375" customWidth="1"/>
     <col min="31" max="31" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="22.7109375" customWidth="1"/>
+    <col min="33" max="33" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -650,49 +665,49 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>36</v>
@@ -710,569 +725,595 @@
         <v>36</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>31400</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2">
         <v>3400</v>
       </c>
-      <c r="D2" s="2">
+      <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
+      <c r="G2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="2">
         <v>1</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2">
-        <v>31400</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="2"/>
+      <c r="O2" s="2">
+        <v>31400</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
+      <c r="U2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="W2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2">
         <v>31400</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2">
         <v>3400</v>
       </c>
-      <c r="D3" s="2">
+      <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="2">
         <v>2</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2">
-        <v>31400</v>
-      </c>
-      <c r="M3" s="2">
-        <v>31400</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="M3" s="2"/>
+      <c r="N3" s="2">
+        <v>31400</v>
+      </c>
+      <c r="O3" s="2">
+        <v>31400</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2"/>
+      <c r="S3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
-      <c r="W3" s="2" t="s">
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2">
         <v>31400</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
         <v>3400</v>
       </c>
-      <c r="D4" s="2">
+      <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>11</v>
+      <c r="H4" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="2">
         <v>3</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="2">
-        <v>31400</v>
-      </c>
-      <c r="M4" s="2">
-        <v>31400</v>
-      </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="2">
+        <v>31400</v>
+      </c>
+      <c r="O4" s="2">
+        <v>31400</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
-      <c r="V4" s="2" t="s">
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="Y4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="Z4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Y4" s="2" t="s">
+      <c r="AA4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AB4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AD4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="AE4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AD4" s="2" t="s">
+      <c r="AF4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AE4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AF4" s="2" t="s">
+      <c r="AH4" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="2">
         <v>31400</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2">
         <v>3400</v>
       </c>
-      <c r="D5" s="2">
+      <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="G5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="I5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="2">
         <v>4</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="2">
-        <v>31400</v>
-      </c>
-      <c r="M5" s="2">
-        <v>31400</v>
-      </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="2">
+        <v>31400</v>
+      </c>
+      <c r="O5" s="2">
+        <v>31400</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
-      <c r="V5" s="2" t="s">
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="Y5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="X5" s="2" t="s">
+      <c r="Z5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Y5" s="2" t="s">
+      <c r="AA5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Z5" s="2" t="s">
+      <c r="AB5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AA5" s="2" t="s">
+      <c r="AC5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AB5" s="2" t="s">
+      <c r="AD5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AC5" s="2" t="s">
+      <c r="AE5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AD5" s="2" t="s">
+      <c r="AF5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AE5" s="2" t="s">
+      <c r="AG5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AF5" s="2" t="s">
+      <c r="AH5" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="2">
         <v>31400</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
         <v>3400</v>
       </c>
-      <c r="D6" s="2">
+      <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>11</v>
+      <c r="H6" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="2">
         <v>5</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="2">
-        <v>31400</v>
-      </c>
-      <c r="M6" s="2">
-        <v>31400</v>
-      </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="2">
+        <v>31400</v>
+      </c>
+      <c r="O6" s="2">
+        <v>31400</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="S6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
-      <c r="V6" s="2" t="s">
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="W6" s="2" t="s">
+      <c r="Y6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="X6" s="2" t="s">
+      <c r="Z6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Y6" s="2" t="s">
+      <c r="AA6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Z6" s="2" t="s">
+      <c r="AB6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AA6" s="2" t="s">
+      <c r="AC6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AB6" s="2" t="s">
+      <c r="AD6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AC6" s="2" t="s">
+      <c r="AE6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AD6" s="2" t="s">
+      <c r="AF6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AE6" s="2" t="s">
+      <c r="AG6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AF6" s="2" t="s">
+      <c r="AH6" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2">
         <v>31400</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
         <v>3400</v>
       </c>
-      <c r="D7" s="2">
+      <c r="F7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>11</v>
+      <c r="H7" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="2">
         <v>6</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="2">
-        <v>31400</v>
-      </c>
-      <c r="M7" s="2">
-        <v>31400</v>
-      </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="2">
+        <v>31400</v>
+      </c>
+      <c r="O7" s="2">
+        <v>31400</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="T7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2" t="s">
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="X7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="W7" s="2" t="s">
+      <c r="Y7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="X7" s="2" t="s">
+      <c r="Z7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Y7" s="2" t="s">
+      <c r="AA7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Z7" s="2" t="s">
+      <c r="AB7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AA7" s="2" t="s">
+      <c r="AC7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AB7" s="2" t="s">
+      <c r="AD7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AC7" s="2" t="s">
+      <c r="AE7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AD7" s="2" t="s">
+      <c r="AF7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AE7" s="2" t="s">
+      <c r="AG7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AF7" s="2" t="s">
+      <c r="AH7" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/assets/VL.xlsx
+++ b/assets/VL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebk\makro\p6_data\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36860610-8B0F-4985-AE0E-2AF42975F9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C200E49-B98A-4BD8-91B0-A6F916CED5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{E7DE5B6D-17B1-4BBB-8342-C7DA09B36074}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="109">
   <si>
     <t>24-2267</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Statistikgruppe</t>
   </si>
   <si>
-    <t>Undtagne transporttyper</t>
-  </si>
-  <si>
     <t>ÅRH142</t>
   </si>
   <si>
@@ -220,13 +217,160 @@
   </si>
   <si>
     <t>18:03*</t>
+  </si>
+  <si>
+    <t>KørerIkkeTransporttyper</t>
+  </si>
+  <si>
+    <t>høj</t>
+  </si>
+  <si>
+    <t>nja</t>
+  </si>
+  <si>
+    <t>barn1</t>
+  </si>
+  <si>
+    <t>barn2</t>
+  </si>
+  <si>
+    <t>barn3</t>
+  </si>
+  <si>
+    <t>liftnet</t>
+  </si>
+  <si>
+    <t>selepude</t>
+  </si>
+  <si>
+    <t>liggende</t>
+  </si>
+  <si>
+    <t>center</t>
+  </si>
+  <si>
+    <t>tripstol</t>
+  </si>
+  <si>
+    <t>VognmandLinie1</t>
+  </si>
+  <si>
+    <t>VognmandKontaktnummer</t>
+  </si>
+  <si>
+    <t>Lukket pr. 16-11-24</t>
+  </si>
+  <si>
+    <t>Lukket pr. 13-11-24</t>
+  </si>
+  <si>
+    <t>Lukket pr. 12-11-24</t>
+  </si>
+  <si>
+    <t>Lukket pr. 14-11-24</t>
+  </si>
+  <si>
+    <t>Lukket pr. 15-11-24</t>
+  </si>
+  <si>
+    <t>Lukket pr. 17-11-24</t>
+  </si>
+  <si>
+    <t>VognmandLinie2</t>
+  </si>
+  <si>
+    <t>VognmandLinie3</t>
+  </si>
+  <si>
+    <t>VognmandLinie4</t>
+  </si>
+  <si>
+    <t>Gadenr 1</t>
+  </si>
+  <si>
+    <t>Gadenr 2</t>
+  </si>
+  <si>
+    <t>Gadenr 3</t>
+  </si>
+  <si>
+    <t>Gadenr 4</t>
+  </si>
+  <si>
+    <t>Gadenr 5</t>
+  </si>
+  <si>
+    <t>Gadenr 6</t>
+  </si>
+  <si>
+    <t>8001 By</t>
+  </si>
+  <si>
+    <t>8002 By</t>
+  </si>
+  <si>
+    <t>8003 By</t>
+  </si>
+  <si>
+    <t>8004 By</t>
+  </si>
+  <si>
+    <t>8005 By</t>
+  </si>
+  <si>
+    <t>8006 By</t>
+  </si>
+  <si>
+    <t>årh143</t>
+  </si>
+  <si>
+    <t>årh144</t>
+  </si>
+  <si>
+    <t>årh145</t>
+  </si>
+  <si>
+    <t>årh146</t>
+  </si>
+  <si>
+    <t>årh147</t>
+  </si>
+  <si>
+    <t>årh148</t>
+  </si>
+  <si>
+    <t>Vognmand 1 ApS</t>
+  </si>
+  <si>
+    <t>Vognmand 2 ApS</t>
+  </si>
+  <si>
+    <t>Vognmand 3 ApS</t>
+  </si>
+  <si>
+    <t>Vognmand 4 ApS</t>
+  </si>
+  <si>
+    <t>Vognmand 5 ApS</t>
+  </si>
+  <si>
+    <t>Vognmand 6 ApS</t>
+  </si>
+  <si>
+    <t>01:01</t>
+  </si>
+  <si>
+    <t>05:05*</t>
+  </si>
+  <si>
+    <t>ChfKontaktNummer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +382,12 @@
       <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -286,12 +436,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2422EC17-15C8-4726-B31A-3667559F39F4}">
-  <dimension ref="A1:AH7"/>
+  <dimension ref="A1:AW7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,25 +791,20 @@
     <col min="3" max="8" width="16.85546875" customWidth="1"/>
     <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="24" width="14.28515625" customWidth="1"/>
-    <col min="25" max="25" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="22.7109375" customWidth="1"/>
-    <col min="27" max="27" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.7109375" customWidth="1"/>
-    <col min="29" max="29" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.7109375" customWidth="1"/>
-    <col min="31" max="31" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="22.7109375" customWidth="1"/>
-    <col min="33" max="33" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="22.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="30" width="14.28515625" customWidth="1"/>
+    <col min="31" max="40" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -665,22 +812,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="G1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>3</v>
@@ -692,76 +839,121 @@
         <v>5</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="W1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW1" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -777,89 +969,132 @@
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P2" s="2">
+        <v>70112220</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="2">
+        <v>31400</v>
+      </c>
+      <c r="T2" s="2">
+        <v>31400</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" s="6">
+        <v>45613</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="2">
-        <v>1</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2">
-        <v>31400</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AH2" s="2" t="s">
-        <v>23</v>
+      <c r="AN2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW2" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -875,19 +1110,972 @@
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="I3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P3" s="2">
+        <v>70112221</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>2</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2">
+        <v>31400</v>
+      </c>
+      <c r="T3" s="2">
+        <v>31400</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW3" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>31400</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
+        <v>3400</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P4" s="2">
+        <v>70112222</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>3</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S4" s="2">
+        <v>31400</v>
+      </c>
+      <c r="T4" s="2">
+        <v>31400</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW4" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>31400</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2">
+        <v>3400</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P5" s="2">
+        <v>70112223</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>4</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" s="2">
+        <v>31400</v>
+      </c>
+      <c r="T5" s="2">
+        <v>31400</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW5" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>31400</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
+        <v>3400</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P6" s="2">
+        <v>70112224</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>5</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S6" s="2">
+        <v>31400</v>
+      </c>
+      <c r="T6" s="2">
+        <v>31400</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW6" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>31400</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
+        <v>3400</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P7" s="2">
+        <v>70112225</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>6</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S7" s="2">
+        <v>31400</v>
+      </c>
+      <c r="T7" s="2">
+        <v>31400</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW7" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239AF1B5-7749-4A70-A99E-768AB8618D1E}">
+  <dimension ref="A1:AR7"/>
+  <sheetViews>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection sqref="A1:AR7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31400</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2">
+        <v>3400</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2">
+        <v>31400</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR2" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>31400</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2">
+        <v>3400</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="H3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L3" s="2">
         <v>2</v>
@@ -900,14 +2088,14 @@
         <v>31400</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
@@ -915,37 +2103,67 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AH3" s="2" t="s">
-        <v>23</v>
+      <c r="AI3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR3" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -961,25 +2179,25 @@
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L4" s="2">
         <v>3</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N4" s="2">
         <v>31400</v>
@@ -988,56 +2206,86 @@
         <v>31400</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Y4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AA4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AB4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="AD4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AD4" s="2" t="s">
+      <c r="AE4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AE4" s="2" t="s">
+      <c r="AF4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AF4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AG4" s="2" t="s">
+      <c r="AH4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AH4" s="2" t="s">
-        <v>23</v>
+      <c r="AI4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR4" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1053,25 +2301,25 @@
         <v>1</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L5" s="2">
         <v>4</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N5" s="2">
         <v>31400</v>
@@ -1080,56 +2328,86 @@
         <v>31400</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Y5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Z5" s="2" t="s">
+      <c r="AA5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AA5" s="2" t="s">
+      <c r="AB5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AB5" s="2" t="s">
+      <c r="AC5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AC5" s="2" t="s">
+      <c r="AD5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AD5" s="2" t="s">
+      <c r="AE5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AE5" s="2" t="s">
+      <c r="AF5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AF5" s="2" t="s">
+      <c r="AG5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AG5" s="2" t="s">
+      <c r="AH5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AH5" s="2" t="s">
-        <v>23</v>
+      <c r="AI5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR5" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1145,25 +2423,25 @@
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L6" s="2">
         <v>5</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N6" s="2">
         <v>31400</v>
@@ -1172,56 +2450,86 @@
         <v>31400</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S6" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Y6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Z6" s="2" t="s">
+      <c r="AA6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="2" t="s">
+      <c r="AB6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AB6" s="2" t="s">
+      <c r="AC6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AC6" s="2" t="s">
+      <c r="AD6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AD6" s="2" t="s">
+      <c r="AE6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AE6" s="2" t="s">
+      <c r="AF6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AF6" s="2" t="s">
+      <c r="AG6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AG6" s="2" t="s">
+      <c r="AH6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AH6" s="2" t="s">
-        <v>23</v>
+      <c r="AI6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR6" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1237,25 +2545,25 @@
         <v>1</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L7" s="2">
         <v>6</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N7" s="2">
         <v>31400</v>
@@ -1264,260 +2572,87 @@
         <v>31400</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="T7" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="Y7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Z7" s="2" t="s">
+      <c r="AA7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AA7" s="2" t="s">
+      <c r="AB7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AB7" s="2" t="s">
+      <c r="AC7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AC7" s="2" t="s">
+      <c r="AD7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AD7" s="2" t="s">
+      <c r="AE7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AE7" s="2" t="s">
+      <c r="AF7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AF7" s="2" t="s">
+      <c r="AG7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AG7" s="2" t="s">
+      <c r="AH7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AH7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239AF1B5-7749-4A70-A99E-768AB8618D1E}">
-  <dimension ref="A1:AF2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31400</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3400</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="2">
-        <v>70112212</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="2">
-        <v>31400</v>
-      </c>
-      <c r="M2" s="2">
-        <v>31400</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>23</v>
+      <c r="AI7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR7" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/assets/VL.xlsx
+++ b/assets/VL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebk\makro\p6_data\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C200E49-B98A-4BD8-91B0-A6F916CED5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8EA345-31A4-4471-A820-3957A74EC331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{E7DE5B6D-17B1-4BBB-8342-C7DA09B36074}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="109">
   <si>
     <t>24-2267</t>
   </si>
@@ -357,13 +357,13 @@
     <t>Vognmand 6 ApS</t>
   </si>
   <si>
-    <t>01:01</t>
-  </si>
-  <si>
     <t>05:05*</t>
   </si>
   <si>
     <t>ChfKontaktNummer</t>
+  </si>
+  <si>
+    <t>23:00</t>
   </si>
 </sst>
 </file>
@@ -778,33 +778,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2422EC17-15C8-4726-B31A-3667559F39F4}">
-  <dimension ref="A1:AW7"/>
+  <dimension ref="A1:AU7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="16.85546875" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" customWidth="1"/>
-    <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="30" width="14.28515625" customWidth="1"/>
-    <col min="31" max="40" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="28" width="14.28515625" customWidth="1"/>
+    <col min="29" max="38" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -812,64 +812,64 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>35</v>
@@ -887,10 +887,10 @@
         <v>35</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="AD1" s="2" t="s">
         <v>53</v>
@@ -916,11 +916,11 @@
       <c r="AK1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AL1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>53</v>
+      <c r="AL1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="AN1" s="5" t="s">
         <v>60</v>
@@ -946,834 +946,816 @@
       <c r="AU1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AV1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW1" s="5" t="s">
-        <v>60</v>
-      </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>31400</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2">
+      <c r="C2" s="2">
         <v>3400</v>
       </c>
-      <c r="F2" s="2">
+      <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>107</v>
+      <c r="G2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>94</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="O2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="P2" s="2">
+      <c r="N2" s="2">
         <v>70112220</v>
       </c>
+      <c r="O2" s="2">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="Q2" s="2">
-        <v>1</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S2" s="2">
-        <v>31400</v>
-      </c>
-      <c r="T2" s="2">
-        <v>31400</v>
-      </c>
-      <c r="U2" s="2" t="s">
+        <v>31400</v>
+      </c>
+      <c r="R2" s="2">
+        <v>31400</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="T2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" s="6">
+        <v>45613</v>
+      </c>
       <c r="V2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" s="6">
-        <v>45613</v>
+        <v>37</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="AJ2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM2" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="AL2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="AN2" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AO2" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AP2" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AQ2" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AR2" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AS2" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AT2" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AU2" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AV2" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW2" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2">
         <v>31400</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2">
+      <c r="C3" s="2">
         <v>3400</v>
       </c>
-      <c r="F3" s="2">
+      <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>45</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>95</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="P3" s="2">
+      <c r="N3" s="2">
         <v>70112221</v>
       </c>
+      <c r="O3" s="2">
+        <v>2</v>
+      </c>
+      <c r="P3" s="2"/>
       <c r="Q3" s="2">
-        <v>2</v>
-      </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2">
-        <v>31400</v>
-      </c>
-      <c r="T3" s="2">
-        <v>31400</v>
-      </c>
-      <c r="U3" s="2" t="s">
+        <v>31400</v>
+      </c>
+      <c r="R3" s="2">
+        <v>31400</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="T3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="2"/>
       <c r="V3" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="W3" s="2"/>
-      <c r="X3" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
+      <c r="AB3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="AD3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM3" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="AL3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM3" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="AN3" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AO3" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AP3" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AQ3" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AR3" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AS3" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AT3" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AU3" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AV3" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW3" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2">
         <v>31400</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2">
+      <c r="C4" s="2">
         <v>3400</v>
       </c>
-      <c r="F4" s="2">
+      <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>59</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>96</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="P4" s="2">
+      <c r="N4" s="2">
         <v>70112222</v>
       </c>
+      <c r="O4" s="2">
+        <v>3</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="Q4" s="2">
-        <v>3</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="S4" s="2">
-        <v>31400</v>
-      </c>
-      <c r="T4" s="2">
-        <v>31400</v>
+        <v>31400</v>
+      </c>
+      <c r="R4" s="2">
+        <v>31400</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X4" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
+      <c r="AA4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="AC4" s="2" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM4" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="AL4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM4" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="AN4" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AO4" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AP4" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AQ4" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AR4" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AS4" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AT4" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AU4" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AV4" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW4" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="2">
         <v>31400</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2">
+      <c r="C5" s="2">
         <v>3400</v>
       </c>
-      <c r="F5" s="2">
+      <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>48</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>97</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="O5" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="P5" s="2">
+      <c r="N5" s="2">
         <v>70112223</v>
       </c>
+      <c r="O5" s="2">
+        <v>4</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="Q5" s="2">
-        <v>4</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S5" s="2">
-        <v>31400</v>
-      </c>
-      <c r="T5" s="2">
-        <v>31400</v>
+        <v>31400</v>
+      </c>
+      <c r="R5" s="2">
+        <v>31400</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X5" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
+      <c r="AA5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="AC5" s="2" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AH5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AJ5" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM5" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="AL5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM5" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="AN5" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AO5" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AP5" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AQ5" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AR5" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AS5" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AT5" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AU5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AV5" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW5" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="2">
         <v>31400</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2">
+      <c r="C6" s="2">
         <v>3400</v>
       </c>
-      <c r="F6" s="2">
+      <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>52</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>98</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="P6" s="2">
+      <c r="N6" s="2">
         <v>70112224</v>
       </c>
+      <c r="O6" s="2">
+        <v>5</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="Q6" s="2">
-        <v>5</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="S6" s="2">
-        <v>31400</v>
-      </c>
-      <c r="T6" s="2">
-        <v>31400</v>
+        <v>31400</v>
+      </c>
+      <c r="R6" s="2">
+        <v>31400</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X6" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
+      <c r="AA6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="AC6" s="2" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AF6" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AH6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AJ6" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM6" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="AL6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM6" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="AN6" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AO6" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AP6" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AQ6" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AR6" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AS6" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AT6" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AU6" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AV6" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW6" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2">
         <v>31400</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2">
+      <c r="C7" s="2">
         <v>3400</v>
       </c>
-      <c r="F7" s="2">
+      <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>50</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>99</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="O7" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="P7" s="2">
+      <c r="N7" s="2">
         <v>70112225</v>
       </c>
+      <c r="O7" s="2">
+        <v>6</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="Q7" s="2">
-        <v>6</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S7" s="2">
-        <v>31400</v>
-      </c>
-      <c r="T7" s="2">
-        <v>31400</v>
+        <v>31400</v>
+      </c>
+      <c r="R7" s="2">
+        <v>31400</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="AB7" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AF7" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AH7" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AJ7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM7" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="AL7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM7" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="AN7" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AO7" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AP7" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AQ7" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AR7" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AS7" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AT7" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AU7" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AV7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW7" s="5" t="s">
         <v>70</v>
       </c>
     </row>

--- a/assets/VL.xlsx
+++ b/assets/VL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebk\makro\p6_data\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8EA345-31A4-4471-A820-3957A74EC331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C7A968-39CC-453A-8837-4AD97776D410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{E7DE5B6D-17B1-4BBB-8342-C7DA09B36074}"/>
+    <workbookView xWindow="-120" yWindow="570" windowWidth="29040" windowHeight="16830" xr2:uid="{E7DE5B6D-17B1-4BBB-8342-C7DA09B36074}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -780,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2422EC17-15C8-4726-B31A-3667559F39F4}">
   <dimension ref="A1:AU7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/VL.xlsx
+++ b/assets/VL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebk\makro\p6_data\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C7A968-39CC-453A-8837-4AD97776D410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66BD800-4F1F-40EA-981F-B37126C8D5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="570" windowWidth="29040" windowHeight="16830" xr2:uid="{E7DE5B6D-17B1-4BBB-8342-C7DA09B36074}"/>
+    <workbookView xWindow="-120" yWindow="570" windowWidth="29040" windowHeight="15030" xr2:uid="{E7DE5B6D-17B1-4BBB-8342-C7DA09B36074}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="108">
   <si>
     <t>24-2267</t>
   </si>
@@ -357,13 +357,10 @@
     <t>Vognmand 6 ApS</t>
   </si>
   <si>
-    <t>05:05*</t>
-  </si>
-  <si>
     <t>ChfKontaktNummer</t>
   </si>
   <si>
-    <t>23:00</t>
+    <t>3GVEL</t>
   </si>
 </sst>
 </file>
@@ -780,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2422EC17-15C8-4726-B31A-3667559F39F4}">
   <dimension ref="A1:AU7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,7 +845,7 @@
         <v>72</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>6</v>
@@ -960,12 +957,8 @@
       <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>106</v>
-      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
       <c r="G2" s="2" t="s">
         <v>94</v>
       </c>
@@ -1003,7 +996,7 @@
         <v>31400</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>27</v>
@@ -1099,12 +1092,8 @@
       <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
       <c r="G3" s="2" t="s">
         <v>95</v>
       </c>
@@ -1228,12 +1217,8 @@
       <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
       <c r="G4" s="2" t="s">
         <v>96</v>
       </c>
@@ -1363,12 +1348,8 @@
       <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="2" t="s">
         <v>97</v>
       </c>
@@ -1498,12 +1479,8 @@
       <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="2" t="s">
         <v>98</v>
       </c>
@@ -1633,12 +1610,8 @@
       <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="2" t="s">
         <v>99</v>
       </c>
